--- a/Data/Forecasts/IDA1/2023-12-04_exo['y_DA'].xlsx
+++ b/Data/Forecasts/IDA1/2023-12-04_exo['y_DA'].xlsx
@@ -454,7 +454,7 @@
         <v>45264</v>
       </c>
       <c r="B2" t="n">
-        <v>85.80350494384766</v>
+        <v>82.89750671386719</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         <v>45264.02083333334</v>
       </c>
       <c r="B3" t="n">
-        <v>87.40282440185547</v>
+        <v>86.09158325195312</v>
       </c>
     </row>
     <row r="4">
@@ -470,7 +470,7 @@
         <v>45264.04166666666</v>
       </c>
       <c r="B4" t="n">
-        <v>98.04434967041016</v>
+        <v>92.1026611328125</v>
       </c>
     </row>
     <row r="5">
@@ -478,7 +478,7 @@
         <v>45264.0625</v>
       </c>
       <c r="B5" t="n">
-        <v>95.13650512695312</v>
+        <v>85.94180297851562</v>
       </c>
     </row>
     <row r="6">
@@ -486,7 +486,7 @@
         <v>45264.08333333334</v>
       </c>
       <c r="B6" t="n">
-        <v>94.34839630126953</v>
+        <v>86.16879272460938</v>
       </c>
     </row>
     <row r="7">
@@ -494,7 +494,7 @@
         <v>45264.10416666666</v>
       </c>
       <c r="B7" t="n">
-        <v>90.44538879394531</v>
+        <v>86.75638580322266</v>
       </c>
     </row>
     <row r="8">
@@ -502,7 +502,7 @@
         <v>45264.125</v>
       </c>
       <c r="B8" t="n">
-        <v>94.33277130126953</v>
+        <v>89.31621551513672</v>
       </c>
     </row>
     <row r="9">
@@ -510,7 +510,7 @@
         <v>45264.14583333334</v>
       </c>
       <c r="B9" t="n">
-        <v>92.62548828125</v>
+        <v>87.63105010986328</v>
       </c>
     </row>
     <row r="10">
@@ -518,7 +518,7 @@
         <v>45264.16666666666</v>
       </c>
       <c r="B10" t="n">
-        <v>94.37022399902344</v>
+        <v>88.62610626220703</v>
       </c>
     </row>
     <row r="11">
@@ -526,7 +526,7 @@
         <v>45264.1875</v>
       </c>
       <c r="B11" t="n">
-        <v>95.45680236816406</v>
+        <v>86.16474151611328</v>
       </c>
     </row>
     <row r="12">
@@ -534,7 +534,7 @@
         <v>45264.20833333334</v>
       </c>
       <c r="B12" t="n">
-        <v>87.31739807128906</v>
+        <v>85.64076995849609</v>
       </c>
     </row>
     <row r="13">
@@ -542,7 +542,7 @@
         <v>45264.22916666666</v>
       </c>
       <c r="B13" t="n">
-        <v>91.13545989990234</v>
+        <v>88.48844146728516</v>
       </c>
     </row>
     <row r="14">
@@ -550,7 +550,7 @@
         <v>45264.25</v>
       </c>
       <c r="B14" t="n">
-        <v>89.88307189941406</v>
+        <v>91.39191436767578</v>
       </c>
     </row>
     <row r="15">
@@ -558,7 +558,7 @@
         <v>45264.27083333334</v>
       </c>
       <c r="B15" t="n">
-        <v>93.83282470703125</v>
+        <v>99.00519561767578</v>
       </c>
     </row>
     <row r="16">
@@ -566,7 +566,7 @@
         <v>45264.29166666666</v>
       </c>
       <c r="B16" t="n">
-        <v>94.28659057617188</v>
+        <v>104.8127059936523</v>
       </c>
     </row>
     <row r="17">
@@ -574,7 +574,7 @@
         <v>45264.3125</v>
       </c>
       <c r="B17" t="n">
-        <v>125.6482162475586</v>
+        <v>133.8170776367188</v>
       </c>
     </row>
     <row r="18">
@@ -582,7 +582,7 @@
         <v>45264.33333333334</v>
       </c>
       <c r="B18" t="n">
-        <v>121.9228591918945</v>
+        <v>126.0588455200195</v>
       </c>
     </row>
     <row r="19">
@@ -590,7 +590,7 @@
         <v>45264.35416666666</v>
       </c>
       <c r="B19" t="n">
-        <v>137.6063385009766</v>
+        <v>137.3840789794922</v>
       </c>
     </row>
     <row r="20">
@@ -598,7 +598,7 @@
         <v>45264.375</v>
       </c>
       <c r="B20" t="n">
-        <v>133.4422302246094</v>
+        <v>131.3299560546875</v>
       </c>
     </row>
     <row r="21">
@@ -606,7 +606,7 @@
         <v>45264.39583333334</v>
       </c>
       <c r="B21" t="n">
-        <v>136.365966796875</v>
+        <v>133.9674224853516</v>
       </c>
     </row>
     <row r="22">
@@ -614,7 +614,7 @@
         <v>45264.41666666666</v>
       </c>
       <c r="B22" t="n">
-        <v>144.9784698486328</v>
+        <v>138.1448211669922</v>
       </c>
     </row>
     <row r="23">
@@ -622,7 +622,7 @@
         <v>45264.4375</v>
       </c>
       <c r="B23" t="n">
-        <v>140.2973175048828</v>
+        <v>134.8358459472656</v>
       </c>
     </row>
     <row r="24">
@@ -630,7 +630,7 @@
         <v>45264.45833333334</v>
       </c>
       <c r="B24" t="n">
-        <v>143.9768218994141</v>
+        <v>137.6315765380859</v>
       </c>
     </row>
     <row r="25">
@@ -638,7 +638,7 @@
         <v>45264.47916666666</v>
       </c>
       <c r="B25" t="n">
-        <v>143.0305023193359</v>
+        <v>136.1186370849609</v>
       </c>
     </row>
     <row r="26">
@@ -646,7 +646,7 @@
         <v>45264.5</v>
       </c>
       <c r="B26" t="n">
-        <v>147.9560394287109</v>
+        <v>137.7558898925781</v>
       </c>
     </row>
     <row r="27">
@@ -654,7 +654,7 @@
         <v>45264.52083333334</v>
       </c>
       <c r="B27" t="n">
-        <v>145.4257965087891</v>
+        <v>136.8311157226562</v>
       </c>
     </row>
     <row r="28">
@@ -662,7 +662,7 @@
         <v>45264.54166666666</v>
       </c>
       <c r="B28" t="n">
-        <v>146.7767486572266</v>
+        <v>137.7873382568359</v>
       </c>
     </row>
     <row r="29">
@@ -670,7 +670,7 @@
         <v>45264.5625</v>
       </c>
       <c r="B29" t="n">
-        <v>135.6734619140625</v>
+        <v>127.5739669799805</v>
       </c>
     </row>
     <row r="30">
@@ -678,7 +678,7 @@
         <v>45264.58333333334</v>
       </c>
       <c r="B30" t="n">
-        <v>139.1987915039062</v>
+        <v>132.1192169189453</v>
       </c>
     </row>
     <row r="31">
@@ -686,7 +686,7 @@
         <v>45264.60416666666</v>
       </c>
       <c r="B31" t="n">
-        <v>143.8845672607422</v>
+        <v>135.7869720458984</v>
       </c>
     </row>
     <row r="32">
@@ -694,7 +694,7 @@
         <v>45264.625</v>
       </c>
       <c r="B32" t="n">
-        <v>147.4658050537109</v>
+        <v>142.7855072021484</v>
       </c>
     </row>
     <row r="33">
@@ -702,7 +702,7 @@
         <v>45264.64583333334</v>
       </c>
       <c r="B33" t="n">
-        <v>166.9136505126953</v>
+        <v>163.6214141845703</v>
       </c>
     </row>
     <row r="34">
@@ -710,7 +710,7 @@
         <v>45264.66666666666</v>
       </c>
       <c r="B34" t="n">
-        <v>162.3621368408203</v>
+        <v>163.6409301757812</v>
       </c>
     </row>
     <row r="35">
@@ -718,7 +718,7 @@
         <v>45264.6875</v>
       </c>
       <c r="B35" t="n">
-        <v>204.651123046875</v>
+        <v>197.7949829101562</v>
       </c>
     </row>
     <row r="36">
@@ -726,7 +726,7 @@
         <v>45264.70833333334</v>
       </c>
       <c r="B36" t="n">
-        <v>213.2088012695312</v>
+        <v>207.1545715332031</v>
       </c>
     </row>
     <row r="37">
@@ -734,7 +734,7 @@
         <v>45264.72916666666</v>
       </c>
       <c r="B37" t="n">
-        <v>217.2440185546875</v>
+        <v>211.294677734375</v>
       </c>
     </row>
     <row r="38">
@@ -742,7 +742,7 @@
         <v>45264.75</v>
       </c>
       <c r="B38" t="n">
-        <v>203.5207977294922</v>
+        <v>192.4079132080078</v>
       </c>
     </row>
     <row r="39">
@@ -750,7 +750,7 @@
         <v>45264.77083333334</v>
       </c>
       <c r="B39" t="n">
-        <v>183.6136779785156</v>
+        <v>175.8435363769531</v>
       </c>
     </row>
     <row r="40">
@@ -758,7 +758,7 @@
         <v>45264.79166666666</v>
       </c>
       <c r="B40" t="n">
-        <v>163.6897888183594</v>
+        <v>151.7533874511719</v>
       </c>
     </row>
     <row r="41">
@@ -766,7 +766,7 @@
         <v>45264.8125</v>
       </c>
       <c r="B41" t="n">
-        <v>145.5222930908203</v>
+        <v>136.4623870849609</v>
       </c>
     </row>
     <row r="42">
@@ -774,7 +774,7 @@
         <v>45264.83333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>134.4896392822266</v>
+        <v>129.0664520263672</v>
       </c>
     </row>
     <row r="43">
@@ -782,7 +782,7 @@
         <v>45264.85416666666</v>
       </c>
       <c r="B43" t="n">
-        <v>114.3145141601562</v>
+        <v>109.83935546875</v>
       </c>
     </row>
     <row r="44">
@@ -790,7 +790,7 @@
         <v>45264.875</v>
       </c>
       <c r="B44" t="n">
-        <v>123.9205703735352</v>
+        <v>113.1850509643555</v>
       </c>
     </row>
     <row r="45">
@@ -798,7 +798,7 @@
         <v>45264.89583333334</v>
       </c>
       <c r="B45" t="n">
-        <v>103.5198669433594</v>
+        <v>96.28829956054688</v>
       </c>
     </row>
     <row r="46">
@@ -806,7 +806,7 @@
         <v>45264.91666666666</v>
       </c>
       <c r="B46" t="n">
-        <v>105.2999420166016</v>
+        <v>96.30815124511719</v>
       </c>
     </row>
     <row r="47">
@@ -814,7 +814,7 @@
         <v>45264.9375</v>
       </c>
       <c r="B47" t="n">
-        <v>88.31526184082031</v>
+        <v>81.79116821289062</v>
       </c>
     </row>
     <row r="48">
@@ -822,7 +822,7 @@
         <v>45264.95833333334</v>
       </c>
       <c r="B48" t="n">
-        <v>98.46176147460938</v>
+        <v>95.20709228515625</v>
       </c>
     </row>
     <row r="49">
@@ -830,7 +830,7 @@
         <v>45264.97916666666</v>
       </c>
       <c r="B49" t="n">
-        <v>87.67279815673828</v>
+        <v>86.32763671875</v>
       </c>
     </row>
   </sheetData>
